--- a/data/trans_dic/P25C$otraforma_2023-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/P25C$otraforma_2023-Provincia-trans_dic.xlsx
@@ -613,7 +613,7 @@
         <v>0.0431791406188737</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>0.1347726278091108</v>
+        <v>0.1347726278091107</v>
       </c>
     </row>
     <row r="8">
@@ -624,13 +624,13 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>0.1215349134615888</v>
+        <v>0.1183587853821686</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>0.01165198607060431</v>
+        <v>0.01406274448799024</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>0.0892329389512428</v>
+        <v>0.09131197310147725</v>
       </c>
     </row>
     <row r="9">
@@ -641,13 +641,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.2679969859206717</v>
+        <v>0.2666681557503887</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1049755986903454</v>
+        <v>0.1073223479497448</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.1954610556770546</v>
+        <v>0.1999296365344438</v>
       </c>
     </row>
     <row r="10">
@@ -679,13 +679,13 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>0.009119724646432152</v>
+        <v>0.008958000583892503</v>
       </c>
       <c r="D11" s="5" t="n">
         <v>0</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.007900167911082546</v>
+        <v>0.007813338745579363</v>
       </c>
     </row>
     <row r="12">
@@ -696,13 +696,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.1272477311455096</v>
+        <v>0.1107630093202221</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.0702158770833628</v>
+        <v>0.09825173102400711</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.07377885959623068</v>
+        <v>0.06859281252226093</v>
       </c>
     </row>
     <row r="13">
@@ -750,10 +750,10 @@
       </c>
       <c r="C15" s="5" t="inlineStr"/>
       <c r="D15" s="5" t="n">
-        <v>0.054269308920644</v>
+        <v>0.06712872047756609</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.02220774326863383</v>
+        <v>0.02338272199886958</v>
       </c>
     </row>
     <row r="16">
@@ -874,10 +874,10 @@
         <v>0</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>0.01914666133686644</v>
+        <v>0.01875420530109972</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>0.010850998428035</v>
+        <v>0.01094073213154173</v>
       </c>
     </row>
     <row r="24">
@@ -888,13 +888,13 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>0.03170734023651536</v>
+        <v>0.03616745659030079</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>0.09211021095347943</v>
+        <v>0.08461403067900319</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>0.04295791014741365</v>
+        <v>0.04253855415004346</v>
       </c>
     </row>
     <row r="25">
@@ -932,7 +932,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>0.005037479248493071</v>
+        <v>0.004934999170547321</v>
       </c>
     </row>
     <row r="27">
@@ -943,13 +943,13 @@
         </is>
       </c>
       <c r="C27" s="5" t="n">
-        <v>0.06066397039168206</v>
+        <v>0.06072676183938567</v>
       </c>
       <c r="D27" s="5" t="n">
-        <v>0.08655863446396685</v>
+        <v>0.08784137268239313</v>
       </c>
       <c r="E27" s="5" t="n">
-        <v>0.05314810979393655</v>
+        <v>0.05058793726303157</v>
       </c>
     </row>
     <row r="28">
@@ -981,13 +981,13 @@
         </is>
       </c>
       <c r="C29" s="5" t="n">
-        <v>0.02848530698147079</v>
+        <v>0.02769325028483904</v>
       </c>
       <c r="D29" s="5" t="n">
-        <v>0.01520908834573048</v>
+        <v>0.01565730757290641</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>0.02726200476101445</v>
+        <v>0.02685426984227813</v>
       </c>
     </row>
     <row r="30">
@@ -998,13 +998,13 @@
         </is>
       </c>
       <c r="C30" s="5" t="n">
-        <v>0.06038681308309774</v>
+        <v>0.0620748873319604</v>
       </c>
       <c r="D30" s="5" t="n">
-        <v>0.04508420417013683</v>
+        <v>0.04424375359401278</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>0.050441035478057</v>
+        <v>0.04884612640171865</v>
       </c>
     </row>
     <row r="31">
@@ -1210,13 +1210,13 @@
         </is>
       </c>
       <c r="C10" s="6" t="n">
-        <v>14415</v>
+        <v>14038</v>
       </c>
       <c r="D10" s="6" t="n">
-        <v>778</v>
+        <v>939</v>
       </c>
       <c r="E10" s="6" t="n">
-        <v>16539</v>
+        <v>16924</v>
       </c>
     </row>
     <row r="11">
@@ -1227,13 +1227,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>31786</v>
+        <v>31628</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>7006</v>
+        <v>7163</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>36228</v>
+        <v>37057</v>
       </c>
     </row>
     <row r="12">
@@ -1282,13 +1282,13 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>617</v>
+        <v>606</v>
       </c>
       <c r="D14" s="6" t="n">
         <v>0</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>927</v>
+        <v>917</v>
       </c>
     </row>
     <row r="15">
@@ -1299,13 +1299,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>8613</v>
+        <v>7497</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>3485</v>
+        <v>4877</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>8656</v>
+        <v>8048</v>
       </c>
     </row>
     <row r="16">
@@ -1370,10 +1370,10 @@
       </c>
       <c r="C19" s="6" t="inlineStr"/>
       <c r="D19" s="6" t="n">
-        <v>3533</v>
+        <v>4370</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>3831</v>
+        <v>4034</v>
       </c>
     </row>
     <row r="20">
@@ -1545,10 +1545,10 @@
         <v>0</v>
       </c>
       <c r="D30" s="6" t="n">
-        <v>2057</v>
+        <v>2014</v>
       </c>
       <c r="E30" s="6" t="n">
-        <v>2710</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="31">
@@ -1559,13 +1559,13 @@
         </is>
       </c>
       <c r="C31" s="6" t="n">
-        <v>4514</v>
+        <v>5149</v>
       </c>
       <c r="D31" s="6" t="n">
-        <v>9893</v>
+        <v>9088</v>
       </c>
       <c r="E31" s="6" t="n">
-        <v>10729</v>
+        <v>10625</v>
       </c>
     </row>
     <row r="32">
@@ -1620,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="E34" s="6" t="n">
-        <v>795</v>
+        <v>779</v>
       </c>
     </row>
     <row r="35">
@@ -1631,13 +1631,13 @@
         </is>
       </c>
       <c r="C35" s="6" t="n">
-        <v>6888</v>
+        <v>6895</v>
       </c>
       <c r="D35" s="6" t="n">
-        <v>3829</v>
+        <v>3886</v>
       </c>
       <c r="E35" s="6" t="n">
-        <v>8386</v>
+        <v>7982</v>
       </c>
     </row>
     <row r="36">
@@ -1686,13 +1686,13 @@
         </is>
       </c>
       <c r="C38" s="6" t="n">
-        <v>18807</v>
+        <v>18284</v>
       </c>
       <c r="D38" s="6" t="n">
-        <v>5565</v>
+        <v>5729</v>
       </c>
       <c r="E38" s="6" t="n">
-        <v>27974</v>
+        <v>27555</v>
       </c>
     </row>
     <row r="39">
@@ -1703,13 +1703,13 @@
         </is>
       </c>
       <c r="C39" s="6" t="n">
-        <v>39869</v>
+        <v>40983</v>
       </c>
       <c r="D39" s="6" t="n">
-        <v>16496</v>
+        <v>16188</v>
       </c>
       <c r="E39" s="6" t="n">
-        <v>51758</v>
+        <v>50121</v>
       </c>
     </row>
     <row r="40">
